--- a/visualisation/excel/scrapper_accuracy.xlsx
+++ b/visualisation/excel/scrapper_accuracy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kent\University Of Kent UK\Projects\Disso\Screening-LLM\visualisation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5FB31B-A458-439F-B1CB-B4140529CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9350F-454D-4918-AD83-2CBF6478F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2510" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,22 @@
     <t>Result</t>
   </si>
   <si>
-    <t>1234-w/o-scrapper</t>
-  </si>
-  <si>
-    <t>1234-w-scrapper</t>
-  </si>
-  <si>
-    <t>1235-w/o-scrapper</t>
-  </si>
-  <si>
-    <t>1235-w-scrapper</t>
-  </si>
-  <si>
     <t>fail</t>
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>1725236280_w_verifier</t>
+  </si>
+  <si>
+    <t>1725236280_wo_verifier</t>
+  </si>
+  <si>
+    <t>1724982582_w_verifier</t>
+  </si>
+  <si>
+    <t>1724982582_wo_verifier</t>
   </si>
 </sst>
 </file>
@@ -369,10 +369,14 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -384,18 +388,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -403,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -411,7 +415,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
